--- a/docs/Contracts/CONTRACT.xlsx
+++ b/docs/Contracts/CONTRACT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dev\Submerge\docs\Contracts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B58291D9-A56C-4CFD-A148-37998050889E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A768F72-F39F-419D-8516-7D56C1F2FD2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-7752" windowWidth="17496" windowHeight="30936" xr2:uid="{C8925376-2B03-47D1-8337-7170FEBA89A7}"/>
   </bookViews>
@@ -75,7 +75,7 @@
     <definedName name="Pool_Cleaners">#REF!</definedName>
     <definedName name="PoolInt">'[1]INT - NP'!$A$249:$F$1848</definedName>
     <definedName name="Premier_Spa_Table">[1]SPAS!$C$3:$W$17</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">CONTRACT!$A$2:$AF$312</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">CONTRACT!$A$2:$U$312</definedName>
     <definedName name="RBB_Facing">#REF!</definedName>
     <definedName name="RevisedCleaners">[1]EQUIP!$O$11:$O$15</definedName>
     <definedName name="Sanitation">[1]EQUIP!$O$60:$O$68</definedName>
@@ -42148,7 +42148,7 @@
   <dimension ref="A1:AK312"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="110" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="V3" sqref="V3"/>
+      <selection activeCell="Q16" sqref="Q16:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -42162,19 +42162,20 @@
     <col min="20" max="20" width="5.88671875" customWidth="1"/>
     <col min="21" max="21" width="16.44140625" customWidth="1"/>
     <col min="22" max="22" width="5.5546875" customWidth="1"/>
-    <col min="23" max="23" width="6.88671875" customWidth="1"/>
-    <col min="24" max="24" width="8.5546875" customWidth="1"/>
-    <col min="25" max="25" width="5.5546875" customWidth="1"/>
-    <col min="26" max="26" width="12.6640625" customWidth="1"/>
-    <col min="27" max="27" width="6.5546875" customWidth="1"/>
-    <col min="28" max="28" width="5.5546875" customWidth="1"/>
-    <col min="29" max="29" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="5.5546875" customWidth="1"/>
-    <col min="31" max="31" width="9.109375" customWidth="1"/>
-    <col min="32" max="32" width="12.33203125" customWidth="1"/>
-    <col min="33" max="33" width="11.44140625" customWidth="1"/>
-    <col min="34" max="34" width="11.6640625" customWidth="1"/>
-    <col min="35" max="36" width="10.5546875" customWidth="1"/>
+    <col min="23" max="23" width="6.88671875" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="8.5546875" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="12.6640625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="6.5546875" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.88671875" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="5.5546875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="11.44140625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="10.5546875" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="22.8">
@@ -49054,13 +49055,13 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="3" scale="42" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="3" scale="70" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="5" manualBreakCount="5">
     <brk id="66" max="16383" man="1"/>
-    <brk id="118" max="31" man="1"/>
-    <brk id="145" max="31" man="1"/>
-    <brk id="180" max="31" man="1"/>
-    <brk id="243" max="31" man="1"/>
+    <brk id="118" max="20" man="1"/>
+    <brk id="145" max="20" man="1"/>
+    <brk id="180" max="20" man="1"/>
+    <brk id="243" max="20" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
